--- a/data/trans_dic/P37A$otros-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P37A$otros-Estudios-trans_dic.xlsx
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.001591078312456194</v>
+        <v>0.001608408322026645</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.002925360790245994</v>
+        <v>0.002760690231979397</v>
       </c>
       <c r="K5" s="5" t="n">
         <v>0</v>
@@ -734,10 +734,10 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.0005521354769892118</v>
+        <v>0.0005525293906034395</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.003056690469190241</v>
+        <v>0.002714312432622028</v>
       </c>
     </row>
     <row r="6">
@@ -750,34 +750,34 @@
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="n">
-        <v>0.007052547375272666</v>
+        <v>0.007035301297086867</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.01574405066647465</v>
+        <v>0.01839313154824695</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.006238505009564467</v>
+        <v>0.005518362665613852</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.005262556580758878</v>
+        <v>0.004409309988763358</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.007107433630623331</v>
+        <v>0.007039800628969585</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.01160165281026605</v>
+        <v>0.01133302621488482</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.003639928437472576</v>
+        <v>0.003355249715140682</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.002533822079842637</v>
+        <v>0.002537762387610459</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.004985905891433579</v>
+        <v>0.005120618400674188</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.01071964551002193</v>
+        <v>0.0106577045815125</v>
       </c>
     </row>
     <row r="7">
@@ -836,40 +836,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.0005175077621845892</v>
+        <v>0.0006138613711516396</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.001029603312375365</v>
+        <v>0.001277416962982461</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.004300249822878485</v>
+        <v>0.00399315132608833</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.0005818678523410361</v>
+        <v>0.0005812623494743708</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.001299461581008852</v>
+        <v>0.001299331432854469</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.00754886905195929</v>
+        <v>0.007903734818826171</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.0005028132782742667</v>
+        <v>0.000530195530166804</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.0005967321514794751</v>
+        <v>0.0005901948205202977</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.001528812410798945</v>
+        <v>0.001722302402729352</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.00678238083090853</v>
+        <v>0.006571506286022102</v>
       </c>
     </row>
     <row r="9">
@@ -880,40 +880,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.005334768791242218</v>
+        <v>0.005239477631618883</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.003747375733718626</v>
+        <v>0.003673767243535108</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.006082717475180332</v>
+        <v>0.006345198507479167</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.01219621212677186</v>
+        <v>0.01216570411086085</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.003465307312481429</v>
+        <v>0.002577661003438711</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.006073767675235446</v>
+        <v>0.005547308329097942</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.007040865388393456</v>
+        <v>0.006628528002453108</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.01758678639003475</v>
+        <v>0.0182356223822575</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.003112176176599254</v>
+        <v>0.003037586375246398</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.003567298115889433</v>
+        <v>0.003581111827426592</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.005270319777925492</v>
+        <v>0.005184439862486956</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.01310406761671557</v>
+        <v>0.01295970357493571</v>
       </c>
     </row>
     <row r="10">
@@ -961,7 +961,7 @@
         <v>0.007911397188298466</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.01530909165333243</v>
+        <v>0.01530909165333242</v>
       </c>
     </row>
     <row r="11">
@@ -974,30 +974,30 @@
       <c r="C11" s="5" t="inlineStr"/>
       <c r="D11" s="5" t="inlineStr"/>
       <c r="E11" s="5" t="n">
-        <v>0.002598899166844909</v>
+        <v>0.002869973404697642</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.008612006111193034</v>
+        <v>0.009598043426735359</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="5" t="inlineStr"/>
       <c r="I11" s="5" t="n">
-        <v>0.001602303894382083</v>
+        <v>0.001593399309208966</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.00650398089464832</v>
+        <v>0.006575450255540312</v>
       </c>
       <c r="K11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L11" s="5" t="inlineStr"/>
       <c r="M11" s="5" t="n">
-        <v>0.003359100459501331</v>
+        <v>0.002998132549826581</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.009507099869743501</v>
+        <v>0.009856848532279364</v>
       </c>
     </row>
     <row r="12">
@@ -1010,30 +1010,30 @@
       <c r="C12" s="5" t="inlineStr"/>
       <c r="D12" s="5" t="inlineStr"/>
       <c r="E12" s="5" t="n">
-        <v>0.02635866396583022</v>
+        <v>0.02412432548458474</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.03454210580998045</v>
+        <v>0.03491798242408071</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.01039043788813115</v>
+        <v>0.01042540070601833</v>
       </c>
       <c r="H12" s="5" t="inlineStr"/>
       <c r="I12" s="5" t="n">
-        <v>0.01668570916935115</v>
+        <v>0.01703025199365973</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.02024411744382967</v>
+        <v>0.02031908785864093</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.004793996211200817</v>
+        <v>0.004827983784789373</v>
       </c>
       <c r="L12" s="5" t="inlineStr"/>
       <c r="M12" s="5" t="n">
-        <v>0.01578710660329212</v>
+        <v>0.01630837288112701</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.02462103115800718</v>
+        <v>0.02345510218657125</v>
       </c>
     </row>
     <row r="13">
@@ -1057,7 +1057,7 @@
         <v>0.003724202081166513</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.009336782037693503</v>
+        <v>0.009336782037693501</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.00123473881142692</v>
@@ -1081,7 +1081,7 @@
         <v>0.003512182666251438</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.009937074505308535</v>
+        <v>0.009937074505308533</v>
       </c>
     </row>
     <row r="14">
@@ -1092,40 +1092,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.0002693537033697703</v>
+        <v>0.0002652827796223801</v>
       </c>
       <c r="D14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.001834774656702527</v>
+        <v>0.001927207733119504</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.006141634204056934</v>
+        <v>0.006035685078167683</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.0002929374524505126</v>
+        <v>0.0003885584790671905</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.0005472705086277736</v>
+        <v>0.0005572973534038343</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.001698792895073398</v>
+        <v>0.001775965935833218</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.007785649347361961</v>
+        <v>0.007495191512264845</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.0005145551213557105</v>
+        <v>0.0005282195708414597</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.0004510498999134887</v>
+        <v>0.0004400255077594021</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.002251410995750012</v>
+        <v>0.002243191528716372</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.007652822102972278</v>
+        <v>0.007895234084358082</v>
       </c>
     </row>
     <row r="15">
@@ -1136,40 +1136,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.002520631719592284</v>
+        <v>0.002493271250658491</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.001797002571458021</v>
+        <v>0.002263051147598238</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.006607741103591089</v>
+        <v>0.006497820987389187</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.01370254905281528</v>
+        <v>0.01339362200693858</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.002946339723928275</v>
+        <v>0.003288383968618526</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.003294997345843113</v>
+        <v>0.003375667327817061</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.005876391196526489</v>
+        <v>0.005676561647085988</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.01475067716152135</v>
+        <v>0.01444778941978286</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.002261977869129661</v>
+        <v>0.002285702454601631</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.002092609507561629</v>
+        <v>0.00199297890784429</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.005280790625254565</v>
+        <v>0.005376902754573773</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.0123795899595545</v>
+        <v>0.01265970794772698</v>
       </c>
     </row>
     <row r="16">
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>920</v>
+        <v>931</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0</v>
@@ -1456,7 +1456,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>2405</v>
+        <v>2269</v>
       </c>
       <c r="K6" s="6" t="n">
         <v>0</v>
@@ -1468,7 +1468,7 @@
         <v>966</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>4281</v>
+        <v>3802</v>
       </c>
     </row>
     <row r="7">
@@ -1481,34 +1481,34 @@
       <c r="C7" s="6" t="inlineStr"/>
       <c r="D7" s="6" t="inlineStr"/>
       <c r="E7" s="6" t="n">
-        <v>5320</v>
+        <v>5307</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>9108</v>
+        <v>10641</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>8204</v>
+        <v>7257</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>7040</v>
+        <v>5899</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>7069</v>
+        <v>7002</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>9537</v>
+        <v>9316</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>8542</v>
+        <v>7874</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>5859</v>
+        <v>5868</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>8720</v>
+        <v>8956</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>15014</v>
+        <v>14927</v>
       </c>
     </row>
     <row r="8">
@@ -1611,40 +1611,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>876</v>
+        <v>1040</v>
       </c>
       <c r="D10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>2138</v>
+        <v>2652</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>9592</v>
+        <v>8907</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>16392</v>
+        <v>17162</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1650</v>
+        <v>1740</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>2221</v>
+        <v>2197</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>6214</v>
+        <v>7001</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>29856</v>
+        <v>28928</v>
       </c>
     </row>
     <row r="11">
@@ -1655,40 +1655,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>9034</v>
+        <v>8873</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>7360</v>
+        <v>7215</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>12630</v>
+        <v>13175</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>27204</v>
+        <v>27136</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>5502</v>
+        <v>4092</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>10676</v>
+        <v>9751</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>13999</v>
+        <v>13180</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>38188</v>
+        <v>39597</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>10211</v>
+        <v>9967</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>13277</v>
+        <v>13328</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>21422</v>
+        <v>21073</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>57684</v>
+        <v>57048</v>
       </c>
     </row>
     <row r="12">
@@ -1793,30 +1793,30 @@
       <c r="C14" s="6" t="inlineStr"/>
       <c r="D14" s="6" t="inlineStr"/>
       <c r="E14" s="6" t="n">
-        <v>1421</v>
+        <v>1570</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>6128</v>
+        <v>6830</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="6" t="inlineStr"/>
       <c r="I14" s="6" t="n">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>4780</v>
+        <v>4832</v>
       </c>
       <c r="K14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L14" s="6" t="inlineStr"/>
       <c r="M14" s="6" t="n">
-        <v>3682</v>
+        <v>3286</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>13752</v>
+        <v>14258</v>
       </c>
     </row>
     <row r="15">
@@ -1829,30 +1829,30 @@
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="n">
-        <v>14415</v>
+        <v>13193</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>24580</v>
+        <v>24847</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>4950</v>
+        <v>4967</v>
       </c>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="n">
-        <v>9163</v>
+        <v>9352</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>14877</v>
+        <v>14932</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>4927</v>
+        <v>4962</v>
       </c>
       <c r="L15" s="6" t="inlineStr"/>
       <c r="M15" s="6" t="n">
-        <v>17303</v>
+        <v>17874</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>35613</v>
+        <v>33927</v>
       </c>
     </row>
     <row r="16">
@@ -1955,40 +1955,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>883</v>
+        <v>869</v>
       </c>
       <c r="D18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>6197</v>
+        <v>6509</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>21623</v>
+        <v>21250</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>990</v>
+        <v>1313</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1945</v>
+        <v>1981</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>6000</v>
+        <v>6273</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>29027</v>
+        <v>27944</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>3425</v>
+        <v>3516</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>3146</v>
+        <v>3069</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>15557</v>
+        <v>15500</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>55475</v>
+        <v>57232</v>
       </c>
     </row>
     <row r="19">
@@ -1999,40 +1999,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>8259</v>
+        <v>8169</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>6145</v>
+        <v>7739</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>22318</v>
+        <v>21947</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>48242</v>
+        <v>47155</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>9956</v>
+        <v>11112</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>11711</v>
+        <v>11998</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>20756</v>
+        <v>20050</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>54995</v>
+        <v>53866</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>15055</v>
+        <v>15213</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>14594</v>
+        <v>13899</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>36489</v>
+        <v>37153</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>89740</v>
+        <v>91770</v>
       </c>
     </row>
     <row r="20">
